--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24868</v>
+        <v>0.247798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248328</v>
+        <v>0.248899</v>
       </c>
       <c r="D2" t="n">
-        <v>0.228534</v>
+        <v>0.228935</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.252853</v>
+        <v>0.252997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25453</v>
+        <v>0.253799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230574</v>
+        <v>0.230506</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.266924</v>
+        <v>0.266659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.268266</v>
+        <v>0.269603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23934</v>
+        <v>0.240333</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.280314</v>
+        <v>0.280735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.288149</v>
+        <v>0.288649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251158</v>
+        <v>0.252438</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.297688</v>
+        <v>0.298128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.306499</v>
+        <v>0.305543</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260354</v>
+        <v>0.260974</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.322466</v>
+        <v>0.328619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.342778</v>
+        <v>0.342854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.277683</v>
+        <v>0.277329</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.364574</v>
+        <v>0.363802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.383742</v>
+        <v>0.381498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.298038</v>
+        <v>0.297571</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.42508</v>
+        <v>0.42253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.451365</v>
+        <v>0.451241</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242274</v>
+        <v>0.242257</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25523</v>
+        <v>0.252009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.251475</v>
+        <v>0.247495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244166</v>
+        <v>0.243514</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255106</v>
+        <v>0.253476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.253236</v>
+        <v>0.249723</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242931</v>
+        <v>0.243184</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.259723</v>
+        <v>0.259056</v>
       </c>
       <c r="C12" t="n">
-        <v>0.255489</v>
+        <v>0.253113</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248909</v>
+        <v>0.246679</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.261023</v>
+        <v>0.260607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.256708</v>
+        <v>0.257105</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248539</v>
+        <v>0.247962</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.263687</v>
+        <v>0.261411</v>
       </c>
       <c r="C14" t="n">
-        <v>0.260449</v>
+        <v>0.261172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.252341</v>
+        <v>0.25221</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26814</v>
+        <v>0.263969</v>
       </c>
       <c r="C15" t="n">
-        <v>0.266456</v>
+        <v>0.264563</v>
       </c>
       <c r="D15" t="n">
-        <v>0.256093</v>
+        <v>0.255623</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.27213</v>
+        <v>0.271421</v>
       </c>
       <c r="C16" t="n">
-        <v>0.272558</v>
+        <v>0.273426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.256355</v>
+        <v>0.256724</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275319</v>
+        <v>0.276782</v>
       </c>
       <c r="C17" t="n">
-        <v>0.279487</v>
+        <v>0.279213</v>
       </c>
       <c r="D17" t="n">
-        <v>0.257539</v>
+        <v>0.259487</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.282322</v>
+        <v>0.281067</v>
       </c>
       <c r="C18" t="n">
-        <v>0.285602</v>
+        <v>0.28591</v>
       </c>
       <c r="D18" t="n">
-        <v>0.259939</v>
+        <v>0.262033</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294749</v>
+        <v>0.291662</v>
       </c>
       <c r="C19" t="n">
-        <v>0.297527</v>
+        <v>0.298095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.268439</v>
+        <v>0.266261</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.307665</v>
+        <v>0.303485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.315278</v>
+        <v>0.31535</v>
       </c>
       <c r="D20" t="n">
-        <v>0.272436</v>
+        <v>0.271477</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.331226</v>
+        <v>0.330295</v>
       </c>
       <c r="C21" t="n">
-        <v>0.340643</v>
+        <v>0.339177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.281837</v>
+        <v>0.282896</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.362175</v>
+        <v>0.366109</v>
       </c>
       <c r="C22" t="n">
-        <v>0.370809</v>
+        <v>0.369868</v>
       </c>
       <c r="D22" t="n">
-        <v>0.298107</v>
+        <v>0.300382</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.415808</v>
+        <v>0.418279</v>
       </c>
       <c r="C23" t="n">
-        <v>0.436241</v>
+        <v>0.435844</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257638</v>
+        <v>0.256566</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.272232</v>
+        <v>0.271885</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265787</v>
+        <v>0.263636</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25944</v>
+        <v>0.257763</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.273697</v>
+        <v>0.272607</v>
       </c>
       <c r="C25" t="n">
-        <v>0.265043</v>
+        <v>0.265912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.259769</v>
+        <v>0.257415</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274668</v>
+        <v>0.274779</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26711</v>
+        <v>0.268911</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26042</v>
+        <v>0.262835</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.274567</v>
+        <v>0.276651</v>
       </c>
       <c r="C27" t="n">
-        <v>0.269824</v>
+        <v>0.270274</v>
       </c>
       <c r="D27" t="n">
-        <v>0.262521</v>
+        <v>0.261541</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277718</v>
+        <v>0.280332</v>
       </c>
       <c r="C28" t="n">
-        <v>0.273049</v>
+        <v>0.27304</v>
       </c>
       <c r="D28" t="n">
-        <v>0.263876</v>
+        <v>0.26449</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.27914</v>
+        <v>0.280125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.275528</v>
+        <v>0.275934</v>
       </c>
       <c r="D29" t="n">
-        <v>0.264047</v>
+        <v>0.26524</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.282</v>
+        <v>0.285232</v>
       </c>
       <c r="C30" t="n">
-        <v>0.280427</v>
+        <v>0.279458</v>
       </c>
       <c r="D30" t="n">
-        <v>0.266563</v>
+        <v>0.267453</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.288916</v>
+        <v>0.287967</v>
       </c>
       <c r="C31" t="n">
-        <v>0.28664</v>
+        <v>0.284939</v>
       </c>
       <c r="D31" t="n">
-        <v>0.268035</v>
+        <v>0.267555</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.294909</v>
+        <v>0.295697</v>
       </c>
       <c r="C32" t="n">
-        <v>0.292512</v>
+        <v>0.294877</v>
       </c>
       <c r="D32" t="n">
-        <v>0.272654</v>
+        <v>0.27175</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305159</v>
+        <v>0.305248</v>
       </c>
       <c r="C33" t="n">
-        <v>0.304408</v>
+        <v>0.304824</v>
       </c>
       <c r="D33" t="n">
-        <v>0.276367</v>
+        <v>0.275941</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.316362</v>
+        <v>0.316483</v>
       </c>
       <c r="C34" t="n">
-        <v>0.319001</v>
+        <v>0.318738</v>
       </c>
       <c r="D34" t="n">
-        <v>0.281341</v>
+        <v>0.281923</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.336988</v>
+        <v>0.334207</v>
       </c>
       <c r="C35" t="n">
-        <v>0.337171</v>
+        <v>0.337306</v>
       </c>
       <c r="D35" t="n">
-        <v>0.287599</v>
+        <v>0.288745</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.363896</v>
+        <v>0.36312</v>
       </c>
       <c r="C36" t="n">
-        <v>0.372188</v>
+        <v>0.372429</v>
       </c>
       <c r="D36" t="n">
-        <v>0.30321</v>
+        <v>0.304123</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.412692</v>
+        <v>0.411659</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426727</v>
+        <v>0.427585</v>
       </c>
       <c r="D37" t="n">
-        <v>0.265872</v>
+        <v>0.265926</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.279226</v>
+        <v>0.280595</v>
       </c>
       <c r="C38" t="n">
-        <v>0.271646</v>
+        <v>0.270908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266438</v>
+        <v>0.264787</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.280883</v>
+        <v>0.282441</v>
       </c>
       <c r="C39" t="n">
-        <v>0.273218</v>
+        <v>0.273234</v>
       </c>
       <c r="D39" t="n">
-        <v>0.268374</v>
+        <v>0.268482</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.282657</v>
+        <v>0.282178</v>
       </c>
       <c r="C40" t="n">
-        <v>0.27468</v>
+        <v>0.274459</v>
       </c>
       <c r="D40" t="n">
-        <v>0.267465</v>
+        <v>0.267422</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285886</v>
+        <v>0.284943</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275769</v>
+        <v>0.276526</v>
       </c>
       <c r="D41" t="n">
-        <v>0.269505</v>
+        <v>0.267334</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.285296</v>
+        <v>0.285548</v>
       </c>
       <c r="C42" t="n">
-        <v>0.279392</v>
+        <v>0.280917</v>
       </c>
       <c r="D42" t="n">
-        <v>0.270348</v>
+        <v>0.270394</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288451</v>
+        <v>0.287364</v>
       </c>
       <c r="C43" t="n">
-        <v>0.281128</v>
+        <v>0.281634</v>
       </c>
       <c r="D43" t="n">
-        <v>0.270208</v>
+        <v>0.269824</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.291555</v>
+        <v>0.293504</v>
       </c>
       <c r="C44" t="n">
-        <v>0.28523</v>
+        <v>0.285423</v>
       </c>
       <c r="D44" t="n">
-        <v>0.27321</v>
+        <v>0.271227</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.297043</v>
+        <v>0.294803</v>
       </c>
       <c r="C45" t="n">
-        <v>0.291028</v>
+        <v>0.291652</v>
       </c>
       <c r="D45" t="n">
-        <v>0.274148</v>
+        <v>0.273773</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.30208</v>
+        <v>0.303533</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298157</v>
+        <v>0.298852</v>
       </c>
       <c r="D46" t="n">
-        <v>0.277225</v>
+        <v>0.277488</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.309449</v>
+        <v>0.311004</v>
       </c>
       <c r="C47" t="n">
-        <v>0.308931</v>
+        <v>0.307755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27976</v>
+        <v>0.279547</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.321661</v>
+        <v>0.322752</v>
       </c>
       <c r="C48" t="n">
-        <v>0.322499</v>
+        <v>0.321657</v>
       </c>
       <c r="D48" t="n">
-        <v>0.286055</v>
+        <v>0.285101</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.34005</v>
+        <v>0.340847</v>
       </c>
       <c r="C49" t="n">
-        <v>0.341492</v>
+        <v>0.341274</v>
       </c>
       <c r="D49" t="n">
-        <v>0.292256</v>
+        <v>0.292354</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.364922</v>
+        <v>0.368445</v>
       </c>
       <c r="C50" t="n">
-        <v>0.375561</v>
+        <v>0.375553</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306853</v>
+        <v>0.307346</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.408891</v>
+        <v>0.412066</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422775</v>
+        <v>0.422709</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270807</v>
+        <v>0.270372</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.478868</v>
+        <v>0.481442</v>
       </c>
       <c r="C52" t="n">
-        <v>0.500868</v>
+        <v>0.500344</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270765</v>
+        <v>0.270724</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.286837</v>
+        <v>0.286372</v>
       </c>
       <c r="C53" t="n">
-        <v>0.280353</v>
+        <v>0.278912</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271138</v>
+        <v>0.271476</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.287965</v>
+        <v>0.287671</v>
       </c>
       <c r="C54" t="n">
-        <v>0.280845</v>
+        <v>0.280659</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271987</v>
+        <v>0.271976</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.290223</v>
+        <v>0.288427</v>
       </c>
       <c r="C55" t="n">
-        <v>0.281929</v>
+        <v>0.282724</v>
       </c>
       <c r="D55" t="n">
-        <v>0.27266</v>
+        <v>0.273645</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.291141</v>
+        <v>0.290356</v>
       </c>
       <c r="C56" t="n">
-        <v>0.285125</v>
+        <v>0.284712</v>
       </c>
       <c r="D56" t="n">
-        <v>0.273357</v>
+        <v>0.273611</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.294263</v>
+        <v>0.292664</v>
       </c>
       <c r="C57" t="n">
-        <v>0.288188</v>
+        <v>0.287422</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274712</v>
+        <v>0.274595</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.297432</v>
+        <v>0.29558</v>
       </c>
       <c r="C58" t="n">
-        <v>0.292742</v>
+        <v>0.291599</v>
       </c>
       <c r="D58" t="n">
-        <v>0.276296</v>
+        <v>0.276758</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30046</v>
+        <v>0.299742</v>
       </c>
       <c r="C59" t="n">
-        <v>0.297499</v>
+        <v>0.296858</v>
       </c>
       <c r="D59" t="n">
-        <v>0.278331</v>
+        <v>0.278297</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30685</v>
+        <v>0.304883</v>
       </c>
       <c r="C60" t="n">
-        <v>0.304655</v>
+        <v>0.30363</v>
       </c>
       <c r="D60" t="n">
-        <v>0.280643</v>
+        <v>0.280483</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.313639</v>
+        <v>0.312265</v>
       </c>
       <c r="C61" t="n">
-        <v>0.313636</v>
+        <v>0.312693</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2838</v>
+        <v>0.28354</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.323897</v>
+        <v>0.32394</v>
       </c>
       <c r="C62" t="n">
-        <v>0.326058</v>
+        <v>0.325558</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288779</v>
+        <v>0.288601</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.340081</v>
+        <v>0.340456</v>
       </c>
       <c r="C63" t="n">
-        <v>0.34483</v>
+        <v>0.344601</v>
       </c>
       <c r="D63" t="n">
-        <v>0.296866</v>
+        <v>0.296309</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.364332</v>
+        <v>0.364161</v>
       </c>
       <c r="C64" t="n">
-        <v>0.373936</v>
+        <v>0.373564</v>
       </c>
       <c r="D64" t="n">
-        <v>0.309772</v>
+        <v>0.309327</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4033</v>
+        <v>0.403396</v>
       </c>
       <c r="C65" t="n">
-        <v>0.420147</v>
+        <v>0.419537</v>
       </c>
       <c r="D65" t="n">
-        <v>0.332169</v>
+        <v>0.331515</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.469315</v>
+        <v>0.467031</v>
       </c>
       <c r="C66" t="n">
-        <v>0.490893</v>
+        <v>0.490745</v>
       </c>
       <c r="D66" t="n">
-        <v>0.276658</v>
+        <v>0.276517</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294595</v>
+        <v>0.293567</v>
       </c>
       <c r="C67" t="n">
-        <v>0.289242</v>
+        <v>0.28812</v>
       </c>
       <c r="D67" t="n">
-        <v>0.277249</v>
+        <v>0.27705</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.295833</v>
+        <v>0.295245</v>
       </c>
       <c r="C68" t="n">
-        <v>0.290544</v>
+        <v>0.289252</v>
       </c>
       <c r="D68" t="n">
-        <v>0.277943</v>
+        <v>0.277932</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.297409</v>
+        <v>0.296524</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292516</v>
+        <v>0.291193</v>
       </c>
       <c r="D69" t="n">
-        <v>0.279206</v>
+        <v>0.278726</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.299003</v>
+        <v>0.298253</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294696</v>
+        <v>0.293599</v>
       </c>
       <c r="D70" t="n">
-        <v>0.279779</v>
+        <v>0.279624</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.30161</v>
+        <v>0.300264</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298426</v>
+        <v>0.296168</v>
       </c>
       <c r="D71" t="n">
-        <v>0.281058</v>
+        <v>0.276509</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.305041</v>
+        <v>0.297317</v>
       </c>
       <c r="C72" t="n">
-        <v>0.302629</v>
+        <v>0.292984</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282864</v>
+        <v>0.277914</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308407</v>
+        <v>0.300794</v>
       </c>
       <c r="C73" t="n">
-        <v>0.306613</v>
+        <v>0.296877</v>
       </c>
       <c r="D73" t="n">
-        <v>0.284909</v>
+        <v>0.27953</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.313334</v>
+        <v>0.305521</v>
       </c>
       <c r="C74" t="n">
-        <v>0.314206</v>
+        <v>0.303691</v>
       </c>
       <c r="D74" t="n">
-        <v>0.287241</v>
+        <v>0.281707</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.322869</v>
+        <v>0.312452</v>
       </c>
       <c r="C75" t="n">
-        <v>0.327926</v>
+        <v>0.312723</v>
       </c>
       <c r="D75" t="n">
-        <v>0.291557</v>
+        <v>0.285053</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.333249</v>
+        <v>0.321631</v>
       </c>
       <c r="C76" t="n">
-        <v>0.338188</v>
+        <v>0.3248</v>
       </c>
       <c r="D76" t="n">
-        <v>0.296848</v>
+        <v>0.289816</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353805</v>
+        <v>0.336968</v>
       </c>
       <c r="C77" t="n">
-        <v>0.358293</v>
+        <v>0.345706</v>
       </c>
       <c r="D77" t="n">
-        <v>0.305223</v>
+        <v>0.297316</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.375471</v>
+        <v>0.362052</v>
       </c>
       <c r="C78" t="n">
-        <v>0.387125</v>
+        <v>0.373064</v>
       </c>
       <c r="D78" t="n">
-        <v>0.321399</v>
+        <v>0.309706</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.418471</v>
+        <v>0.394951</v>
       </c>
       <c r="C79" t="n">
-        <v>0.436717</v>
+        <v>0.410207</v>
       </c>
       <c r="D79" t="n">
-        <v>0.342552</v>
+        <v>0.328333</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.482498</v>
+        <v>0.447594</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504149</v>
+        <v>0.473529</v>
       </c>
       <c r="D80" t="n">
-        <v>0.294116</v>
+        <v>0.275323</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.325564</v>
+        <v>0.307616</v>
       </c>
       <c r="C81" t="n">
-        <v>0.314246</v>
+        <v>0.287527</v>
       </c>
       <c r="D81" t="n">
-        <v>0.296409</v>
+        <v>0.275963</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.330751</v>
+        <v>0.308042</v>
       </c>
       <c r="C82" t="n">
-        <v>0.311316</v>
+        <v>0.288714</v>
       </c>
       <c r="D82" t="n">
-        <v>0.293662</v>
+        <v>0.27689</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.324017</v>
+        <v>0.308591</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3179</v>
+        <v>0.289976</v>
       </c>
       <c r="D83" t="n">
-        <v>0.296677</v>
+        <v>0.279474</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.329705</v>
+        <v>0.317251</v>
       </c>
       <c r="C84" t="n">
-        <v>0.327381</v>
+        <v>0.295427</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298754</v>
+        <v>0.280739</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.342072</v>
+        <v>0.327638</v>
       </c>
       <c r="C85" t="n">
-        <v>0.329242</v>
+        <v>0.304519</v>
       </c>
       <c r="D85" t="n">
-        <v>0.300162</v>
+        <v>0.284993</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.332595</v>
+        <v>0.31787</v>
       </c>
       <c r="C86" t="n">
-        <v>0.33048</v>
+        <v>0.303792</v>
       </c>
       <c r="D86" t="n">
-        <v>0.307988</v>
+        <v>0.286022</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.352352</v>
+        <v>0.337402</v>
       </c>
       <c r="C87" t="n">
-        <v>0.336558</v>
+        <v>0.313901</v>
       </c>
       <c r="D87" t="n">
-        <v>0.310233</v>
+        <v>0.291344</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.356104</v>
+        <v>0.348602</v>
       </c>
       <c r="C88" t="n">
-        <v>0.348223</v>
+        <v>0.326828</v>
       </c>
       <c r="D88" t="n">
-        <v>0.307511</v>
+        <v>0.29257</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.359528</v>
+        <v>0.356504</v>
       </c>
       <c r="C89" t="n">
-        <v>0.354428</v>
+        <v>0.340541</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312951</v>
+        <v>0.297142</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369356</v>
+        <v>0.36467</v>
       </c>
       <c r="C90" t="n">
-        <v>0.365717</v>
+        <v>0.350278</v>
       </c>
       <c r="D90" t="n">
-        <v>0.319249</v>
+        <v>0.309637</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.389053</v>
+        <v>0.382503</v>
       </c>
       <c r="C91" t="n">
-        <v>0.389305</v>
+        <v>0.372619</v>
       </c>
       <c r="D91" t="n">
-        <v>0.329948</v>
+        <v>0.316188</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.402168</v>
+        <v>0.406393</v>
       </c>
       <c r="C92" t="n">
-        <v>0.408275</v>
+        <v>0.394396</v>
       </c>
       <c r="D92" t="n">
-        <v>0.336595</v>
+        <v>0.326966</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.430696</v>
+        <v>0.44018</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440113</v>
+        <v>0.431741</v>
       </c>
       <c r="D93" t="n">
-        <v>0.354212</v>
+        <v>0.34304</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.497198</v>
+        <v>0.489077</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5094689999999999</v>
+        <v>0.492315</v>
       </c>
       <c r="D94" t="n">
-        <v>0.327068</v>
+        <v>0.314776</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351972</v>
+        <v>0.349348</v>
       </c>
       <c r="C95" t="n">
-        <v>0.348454</v>
+        <v>0.334809</v>
       </c>
       <c r="D95" t="n">
-        <v>0.330774</v>
+        <v>0.317811</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.355207</v>
+        <v>0.352548</v>
       </c>
       <c r="C96" t="n">
-        <v>0.350783</v>
+        <v>0.338804</v>
       </c>
       <c r="D96" t="n">
-        <v>0.331368</v>
+        <v>0.317288</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.357514</v>
+        <v>0.354664</v>
       </c>
       <c r="C97" t="n">
-        <v>0.354654</v>
+        <v>0.341552</v>
       </c>
       <c r="D97" t="n">
-        <v>0.335453</v>
+        <v>0.317965</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.362604</v>
+        <v>0.341505</v>
       </c>
       <c r="C98" t="n">
-        <v>0.359934</v>
+        <v>0.332868</v>
       </c>
       <c r="D98" t="n">
-        <v>0.334639</v>
+        <v>0.3209</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.365164</v>
+        <v>0.359653</v>
       </c>
       <c r="C99" t="n">
-        <v>0.36871</v>
+        <v>0.350373</v>
       </c>
       <c r="D99" t="n">
-        <v>0.339298</v>
+        <v>0.323937</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.371116</v>
+        <v>0.36219</v>
       </c>
       <c r="C100" t="n">
-        <v>0.370003</v>
+        <v>0.353971</v>
       </c>
       <c r="D100" t="n">
-        <v>0.340569</v>
+        <v>0.3229</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.375373</v>
+        <v>0.368011</v>
       </c>
       <c r="C101" t="n">
-        <v>0.37625</v>
+        <v>0.358438</v>
       </c>
       <c r="D101" t="n">
-        <v>0.343272</v>
+        <v>0.328496</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.380542</v>
+        <v>0.37204</v>
       </c>
       <c r="C102" t="n">
-        <v>0.381659</v>
+        <v>0.363932</v>
       </c>
       <c r="D102" t="n">
-        <v>0.347239</v>
+        <v>0.328708</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.389695</v>
+        <v>0.377235</v>
       </c>
       <c r="C103" t="n">
-        <v>0.391588</v>
+        <v>0.372856</v>
       </c>
       <c r="D103" t="n">
-        <v>0.348146</v>
+        <v>0.334197</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.395532</v>
+        <v>0.390846</v>
       </c>
       <c r="C104" t="n">
-        <v>0.403557</v>
+        <v>0.388483</v>
       </c>
       <c r="D104" t="n">
-        <v>0.356027</v>
+        <v>0.338341</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.411222</v>
+        <v>0.407211</v>
       </c>
       <c r="C105" t="n">
-        <v>0.421612</v>
+        <v>0.403473</v>
       </c>
       <c r="D105" t="n">
-        <v>0.363371</v>
+        <v>0.347031</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.433853</v>
+        <v>0.428778</v>
       </c>
       <c r="C106" t="n">
-        <v>0.445374</v>
+        <v>0.431332</v>
       </c>
       <c r="D106" t="n">
-        <v>0.372978</v>
+        <v>0.359549</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.464693</v>
+        <v>0.459527</v>
       </c>
       <c r="C107" t="n">
-        <v>0.48441</v>
+        <v>0.470998</v>
       </c>
       <c r="D107" t="n">
-        <v>0.390173</v>
+        <v>0.376301</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.513076</v>
+        <v>0.508525</v>
       </c>
       <c r="C108" t="n">
-        <v>0.546474</v>
+        <v>0.523616</v>
       </c>
       <c r="D108" t="n">
-        <v>0.347287</v>
+        <v>0.326663</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.594841</v>
+        <v>0.588333</v>
       </c>
       <c r="C109" t="n">
-        <v>0.618184</v>
+        <v>0.631001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.34352</v>
+        <v>0.338539</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.373983</v>
+        <v>0.370411</v>
       </c>
       <c r="C110" t="n">
-        <v>0.366663</v>
+        <v>0.364618</v>
       </c>
       <c r="D110" t="n">
-        <v>0.342846</v>
+        <v>0.337066</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.380021</v>
+        <v>0.372303</v>
       </c>
       <c r="C111" t="n">
-        <v>0.369985</v>
+        <v>0.365758</v>
       </c>
       <c r="D111" t="n">
-        <v>0.344281</v>
+        <v>0.339093</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.379304</v>
+        <v>0.372864</v>
       </c>
       <c r="C112" t="n">
-        <v>0.372108</v>
+        <v>0.363047</v>
       </c>
       <c r="D112" t="n">
-        <v>0.346608</v>
+        <v>0.338494</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.382902</v>
+        <v>0.375788</v>
       </c>
       <c r="C113" t="n">
-        <v>0.374113</v>
+        <v>0.367585</v>
       </c>
       <c r="D113" t="n">
-        <v>0.349595</v>
+        <v>0.340144</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.385257</v>
+        <v>0.379959</v>
       </c>
       <c r="C114" t="n">
-        <v>0.379649</v>
+        <v>0.371516</v>
       </c>
       <c r="D114" t="n">
-        <v>0.350148</v>
+        <v>0.34547</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.389746</v>
+        <v>0.387254</v>
       </c>
       <c r="C115" t="n">
-        <v>0.385171</v>
+        <v>0.384414</v>
       </c>
       <c r="D115" t="n">
-        <v>0.352358</v>
+        <v>0.348291</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.398776</v>
+        <v>0.395556</v>
       </c>
       <c r="C116" t="n">
-        <v>0.393945</v>
+        <v>0.391206</v>
       </c>
       <c r="D116" t="n">
-        <v>0.355503</v>
+        <v>0.3491</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.402605</v>
+        <v>0.409541</v>
       </c>
       <c r="C117" t="n">
-        <v>0.402305</v>
+        <v>0.397108</v>
       </c>
       <c r="D117" t="n">
-        <v>0.358746</v>
+        <v>0.355923</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.413607</v>
+        <v>0.406844</v>
       </c>
       <c r="C118" t="n">
-        <v>0.414349</v>
+        <v>0.40539</v>
       </c>
       <c r="D118" t="n">
-        <v>0.368043</v>
+        <v>0.355678</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.426176</v>
+        <v>0.423155</v>
       </c>
       <c r="C119" t="n">
-        <v>0.429534</v>
+        <v>0.430649</v>
       </c>
       <c r="D119" t="n">
-        <v>0.369346</v>
+        <v>0.367077</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.446682</v>
+        <v>0.442395</v>
       </c>
       <c r="C120" t="n">
-        <v>0.453709</v>
+        <v>0.447483</v>
       </c>
       <c r="D120" t="n">
-        <v>0.380823</v>
+        <v>0.37431</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.477921</v>
+        <v>0.471073</v>
       </c>
       <c r="C121" t="n">
-        <v>0.488803</v>
+        <v>0.484955</v>
       </c>
       <c r="D121" t="n">
-        <v>0.39821</v>
+        <v>0.392587</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5253</v>
+        <v>0.520084</v>
       </c>
       <c r="C122" t="n">
-        <v>0.548812</v>
+        <v>0.537117</v>
       </c>
       <c r="D122" t="n">
-        <v>0.426783</v>
+        <v>0.419656</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.613834</v>
+        <v>0.6042</v>
       </c>
       <c r="C123" t="n">
-        <v>0.643158</v>
+        <v>0.632165</v>
       </c>
       <c r="D123" t="n">
-        <v>0.368485</v>
+        <v>0.344455</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.403981</v>
+        <v>0.377724</v>
       </c>
       <c r="C124" t="n">
-        <v>0.384921</v>
+        <v>0.379869</v>
       </c>
       <c r="D124" t="n">
-        <v>0.354738</v>
+        <v>0.352501</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.399993</v>
+        <v>0.385835</v>
       </c>
       <c r="C125" t="n">
-        <v>0.397348</v>
+        <v>0.376242</v>
       </c>
       <c r="D125" t="n">
-        <v>0.364371</v>
+        <v>0.356968</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.407133</v>
+        <v>0.393297</v>
       </c>
       <c r="C126" t="n">
-        <v>0.40499</v>
+        <v>0.384575</v>
       </c>
       <c r="D126" t="n">
-        <v>0.370335</v>
+        <v>0.354134</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.405982</v>
+        <v>0.392785</v>
       </c>
       <c r="C127" t="n">
-        <v>0.416551</v>
+        <v>0.386953</v>
       </c>
       <c r="D127" t="n">
-        <v>0.393128</v>
+        <v>0.358507</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.447981</v>
+        <v>0.397945</v>
       </c>
       <c r="C128" t="n">
-        <v>0.438591</v>
+        <v>0.388352</v>
       </c>
       <c r="D128" t="n">
-        <v>0.375833</v>
+        <v>0.363132</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.415891</v>
+        <v>0.41602</v>
       </c>
       <c r="C129" t="n">
-        <v>0.422638</v>
+        <v>0.406225</v>
       </c>
       <c r="D129" t="n">
-        <v>0.41543</v>
+        <v>0.365228</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.445994</v>
+        <v>0.402543</v>
       </c>
       <c r="C130" t="n">
-        <v>0.447101</v>
+        <v>0.40641</v>
       </c>
       <c r="D130" t="n">
-        <v>0.421866</v>
+        <v>0.375284</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.464601</v>
+        <v>0.435857</v>
       </c>
       <c r="C131" t="n">
-        <v>0.455319</v>
+        <v>0.426234</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397381</v>
+        <v>0.366397</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.476521</v>
+        <v>0.431327</v>
       </c>
       <c r="C132" t="n">
-        <v>0.496119</v>
+        <v>0.424493</v>
       </c>
       <c r="D132" t="n">
-        <v>0.446491</v>
+        <v>0.382789</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.487894</v>
+        <v>0.435806</v>
       </c>
       <c r="C133" t="n">
-        <v>0.492488</v>
+        <v>0.458536</v>
       </c>
       <c r="D133" t="n">
-        <v>0.416472</v>
+        <v>0.386145</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.490602</v>
+        <v>0.470139</v>
       </c>
       <c r="C134" t="n">
-        <v>0.524879</v>
+        <v>0.466489</v>
       </c>
       <c r="D134" t="n">
-        <v>0.421654</v>
+        <v>0.400451</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.527371</v>
+        <v>0.494197</v>
       </c>
       <c r="C135" t="n">
-        <v>0.551309</v>
+        <v>0.518989</v>
       </c>
       <c r="D135" t="n">
-        <v>0.431194</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5772080000000001</v>
+        <v>0.537446</v>
       </c>
       <c r="C136" t="n">
-        <v>0.586437</v>
+        <v>0.562516</v>
       </c>
       <c r="D136" t="n">
-        <v>0.467098</v>
+        <v>0.42423</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.615947</v>
+        <v>0.617186</v>
       </c>
       <c r="C137" t="n">
-        <v>0.659647</v>
+        <v>0.646608</v>
       </c>
       <c r="D137" t="n">
-        <v>0.535291</v>
+        <v>0.470338</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.548119</v>
+        <v>0.5151520000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.53191</v>
+        <v>0.503393</v>
       </c>
       <c r="D138" t="n">
-        <v>0.524037</v>
+        <v>0.469068</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.55542</v>
+        <v>0.503405</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5641080000000001</v>
+        <v>0.495854</v>
       </c>
       <c r="D139" t="n">
-        <v>0.514018</v>
+        <v>0.421937</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.554084</v>
+        <v>0.474497</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5360549999999999</v>
+        <v>0.448586</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5048</v>
+        <v>0.401103</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.544208</v>
+        <v>0.449496</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5534</v>
+        <v>0.452533</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5194</v>
+        <v>0.413893</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.578553</v>
+        <v>0.465972</v>
       </c>
       <c r="C142" t="n">
-        <v>0.552104</v>
+        <v>0.446613</v>
       </c>
       <c r="D142" t="n">
-        <v>0.533489</v>
+        <v>0.450932</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.58663</v>
+        <v>0.480208</v>
       </c>
       <c r="C143" t="n">
-        <v>0.490414</v>
+        <v>0.473433</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448571</v>
+        <v>0.393536</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247798</v>
+        <v>0.294205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248899</v>
+        <v>0.285493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.228935</v>
+        <v>0.280036</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.252997</v>
+        <v>0.282852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.253799</v>
+        <v>0.275489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230506</v>
+        <v>0.266354</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.266659</v>
+        <v>0.277783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.269603</v>
+        <v>0.29583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240333</v>
+        <v>0.26824</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.280735</v>
+        <v>0.293819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.288649</v>
+        <v>0.307412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252438</v>
+        <v>0.278175</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.298128</v>
+        <v>0.305134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.305543</v>
+        <v>0.313144</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260974</v>
+        <v>0.281884</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.328619</v>
+        <v>0.321439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.342854</v>
+        <v>0.348173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.277329</v>
+        <v>0.291968</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.363802</v>
+        <v>0.357759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.381498</v>
+        <v>0.382943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297571</v>
+        <v>0.310021</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.42253</v>
+        <v>0.414174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.451241</v>
+        <v>0.4315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242257</v>
+        <v>0.254128</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.252009</v>
+        <v>0.261666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.247495</v>
+        <v>0.261982</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243514</v>
+        <v>0.258045</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.253476</v>
+        <v>0.262847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249723</v>
+        <v>0.260844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243184</v>
+        <v>0.257398</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.259056</v>
+        <v>0.270362</v>
       </c>
       <c r="C12" t="n">
-        <v>0.253113</v>
+        <v>0.256544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246679</v>
+        <v>0.261091</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.260607</v>
+        <v>0.26811</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257105</v>
+        <v>0.265986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247962</v>
+        <v>0.255902</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261411</v>
+        <v>0.26567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.261172</v>
+        <v>0.263615</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25221</v>
+        <v>0.270612</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263969</v>
+        <v>0.283511</v>
       </c>
       <c r="C15" t="n">
-        <v>0.264563</v>
+        <v>0.283376</v>
       </c>
       <c r="D15" t="n">
-        <v>0.255623</v>
+        <v>0.277542</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.271421</v>
+        <v>0.29068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.273426</v>
+        <v>0.288892</v>
       </c>
       <c r="D16" t="n">
-        <v>0.256724</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.276782</v>
+        <v>0.290349</v>
       </c>
       <c r="C17" t="n">
-        <v>0.279213</v>
+        <v>0.292352</v>
       </c>
       <c r="D17" t="n">
-        <v>0.259487</v>
+        <v>0.271814</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.281067</v>
+        <v>0.290685</v>
       </c>
       <c r="C18" t="n">
-        <v>0.28591</v>
+        <v>0.281013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.262033</v>
+        <v>0.282283</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.291662</v>
+        <v>0.291003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.298095</v>
+        <v>0.294382</v>
       </c>
       <c r="D19" t="n">
-        <v>0.266261</v>
+        <v>0.270409</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.303485</v>
+        <v>0.305499</v>
       </c>
       <c r="C20" t="n">
-        <v>0.31535</v>
+        <v>0.310035</v>
       </c>
       <c r="D20" t="n">
-        <v>0.271477</v>
+        <v>0.27331</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.330295</v>
+        <v>0.331233</v>
       </c>
       <c r="C21" t="n">
-        <v>0.339177</v>
+        <v>0.338168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.282896</v>
+        <v>0.296717</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.366109</v>
+        <v>0.379631</v>
       </c>
       <c r="C22" t="n">
-        <v>0.369868</v>
+        <v>0.363205</v>
       </c>
       <c r="D22" t="n">
-        <v>0.300382</v>
+        <v>0.300958</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.418279</v>
+        <v>0.407739</v>
       </c>
       <c r="C23" t="n">
-        <v>0.435844</v>
+        <v>0.411382</v>
       </c>
       <c r="D23" t="n">
-        <v>0.256566</v>
+        <v>0.254851</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271885</v>
+        <v>0.274265</v>
       </c>
       <c r="C24" t="n">
-        <v>0.263636</v>
+        <v>0.265949</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257763</v>
+        <v>0.258236</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272607</v>
+        <v>0.274384</v>
       </c>
       <c r="C25" t="n">
-        <v>0.265912</v>
+        <v>0.264983</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257415</v>
+        <v>0.270002</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274779</v>
+        <v>0.269324</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268911</v>
+        <v>0.262452</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262835</v>
+        <v>0.251031</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276651</v>
+        <v>0.27331</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270274</v>
+        <v>0.278783</v>
       </c>
       <c r="D27" t="n">
-        <v>0.261541</v>
+        <v>0.276822</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.280332</v>
+        <v>0.29549</v>
       </c>
       <c r="C28" t="n">
-        <v>0.27304</v>
+        <v>0.277716</v>
       </c>
       <c r="D28" t="n">
-        <v>0.26449</v>
+        <v>0.265941</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280125</v>
+        <v>0.286546</v>
       </c>
       <c r="C29" t="n">
-        <v>0.275934</v>
+        <v>0.28008</v>
       </c>
       <c r="D29" t="n">
-        <v>0.26524</v>
+        <v>0.276744</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.285232</v>
+        <v>0.293974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.279458</v>
+        <v>0.287122</v>
       </c>
       <c r="D30" t="n">
-        <v>0.267453</v>
+        <v>0.26802</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.287967</v>
+        <v>0.284067</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284939</v>
+        <v>0.272907</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267555</v>
+        <v>0.269206</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.295697</v>
+        <v>0.295618</v>
       </c>
       <c r="C32" t="n">
-        <v>0.294877</v>
+        <v>0.280875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.27175</v>
+        <v>0.270676</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305248</v>
+        <v>0.303233</v>
       </c>
       <c r="C33" t="n">
-        <v>0.304824</v>
+        <v>0.288295</v>
       </c>
       <c r="D33" t="n">
-        <v>0.275941</v>
+        <v>0.269425</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.316483</v>
+        <v>0.308027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.318738</v>
+        <v>0.307915</v>
       </c>
       <c r="D34" t="n">
-        <v>0.281923</v>
+        <v>0.270343</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.334207</v>
+        <v>0.329646</v>
       </c>
       <c r="C35" t="n">
-        <v>0.337306</v>
+        <v>0.324971</v>
       </c>
       <c r="D35" t="n">
-        <v>0.288745</v>
+        <v>0.284111</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.36312</v>
+        <v>0.356811</v>
       </c>
       <c r="C36" t="n">
-        <v>0.372429</v>
+        <v>0.345681</v>
       </c>
       <c r="D36" t="n">
-        <v>0.304123</v>
+        <v>0.294697</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.411659</v>
+        <v>0.393551</v>
       </c>
       <c r="C37" t="n">
-        <v>0.427585</v>
+        <v>0.408595</v>
       </c>
       <c r="D37" t="n">
-        <v>0.265926</v>
+        <v>0.270945</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.280595</v>
+        <v>0.275135</v>
       </c>
       <c r="C38" t="n">
-        <v>0.270908</v>
+        <v>0.273714</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264787</v>
+        <v>0.261092</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.282441</v>
+        <v>0.268968</v>
       </c>
       <c r="C39" t="n">
-        <v>0.273234</v>
+        <v>0.27636</v>
       </c>
       <c r="D39" t="n">
-        <v>0.268482</v>
+        <v>0.264293</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.282178</v>
+        <v>0.278757</v>
       </c>
       <c r="C40" t="n">
-        <v>0.274459</v>
+        <v>0.269215</v>
       </c>
       <c r="D40" t="n">
-        <v>0.267422</v>
+        <v>0.265571</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.284943</v>
+        <v>0.280738</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276526</v>
+        <v>0.266426</v>
       </c>
       <c r="D41" t="n">
-        <v>0.267334</v>
+        <v>0.271355</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.285548</v>
+        <v>0.280117</v>
       </c>
       <c r="C42" t="n">
-        <v>0.280917</v>
+        <v>0.271589</v>
       </c>
       <c r="D42" t="n">
-        <v>0.270394</v>
+        <v>0.263716</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287364</v>
+        <v>0.280237</v>
       </c>
       <c r="C43" t="n">
-        <v>0.281634</v>
+        <v>0.26839</v>
       </c>
       <c r="D43" t="n">
-        <v>0.269824</v>
+        <v>0.264167</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.293504</v>
+        <v>0.28294</v>
       </c>
       <c r="C44" t="n">
-        <v>0.285423</v>
+        <v>0.270716</v>
       </c>
       <c r="D44" t="n">
-        <v>0.271227</v>
+        <v>0.269932</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.294803</v>
+        <v>0.291935</v>
       </c>
       <c r="C45" t="n">
-        <v>0.291652</v>
+        <v>0.300745</v>
       </c>
       <c r="D45" t="n">
-        <v>0.273773</v>
+        <v>0.277344</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303533</v>
+        <v>0.307502</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298852</v>
+        <v>0.304793</v>
       </c>
       <c r="D46" t="n">
-        <v>0.277488</v>
+        <v>0.287067</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.311004</v>
+        <v>0.314</v>
       </c>
       <c r="C47" t="n">
-        <v>0.307755</v>
+        <v>0.304504</v>
       </c>
       <c r="D47" t="n">
-        <v>0.279547</v>
+        <v>0.28185</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.322752</v>
+        <v>0.323542</v>
       </c>
       <c r="C48" t="n">
-        <v>0.321657</v>
+        <v>0.314114</v>
       </c>
       <c r="D48" t="n">
-        <v>0.285101</v>
+        <v>0.287233</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.340847</v>
+        <v>0.335707</v>
       </c>
       <c r="C49" t="n">
-        <v>0.341274</v>
+        <v>0.33134</v>
       </c>
       <c r="D49" t="n">
-        <v>0.292354</v>
+        <v>0.291963</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.368445</v>
+        <v>0.363496</v>
       </c>
       <c r="C50" t="n">
-        <v>0.375553</v>
+        <v>0.373274</v>
       </c>
       <c r="D50" t="n">
-        <v>0.307346</v>
+        <v>0.309132</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.412066</v>
+        <v>0.398309</v>
       </c>
       <c r="C51" t="n">
-        <v>0.422709</v>
+        <v>0.397295</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270372</v>
+        <v>0.275195</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.481442</v>
+        <v>0.464829</v>
       </c>
       <c r="C52" t="n">
-        <v>0.500344</v>
+        <v>0.463618</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270724</v>
+        <v>0.273424</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.286372</v>
+        <v>0.286473</v>
       </c>
       <c r="C53" t="n">
-        <v>0.278912</v>
+        <v>0.286228</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271476</v>
+        <v>0.268585</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.287671</v>
+        <v>0.28726</v>
       </c>
       <c r="C54" t="n">
-        <v>0.280659</v>
+        <v>0.268569</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271976</v>
+        <v>0.262878</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.288427</v>
+        <v>0.282624</v>
       </c>
       <c r="C55" t="n">
-        <v>0.282724</v>
+        <v>0.277078</v>
       </c>
       <c r="D55" t="n">
-        <v>0.273645</v>
+        <v>0.270821</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.290356</v>
+        <v>0.282867</v>
       </c>
       <c r="C56" t="n">
-        <v>0.284712</v>
+        <v>0.277825</v>
       </c>
       <c r="D56" t="n">
-        <v>0.273611</v>
+        <v>0.267255</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.292664</v>
+        <v>0.283356</v>
       </c>
       <c r="C57" t="n">
-        <v>0.287422</v>
+        <v>0.282039</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274595</v>
+        <v>0.269075</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.29558</v>
+        <v>0.294102</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291599</v>
+        <v>0.280019</v>
       </c>
       <c r="D58" t="n">
-        <v>0.276758</v>
+        <v>0.267691</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.299742</v>
+        <v>0.290975</v>
       </c>
       <c r="C59" t="n">
-        <v>0.296858</v>
+        <v>0.283314</v>
       </c>
       <c r="D59" t="n">
-        <v>0.278297</v>
+        <v>0.270124</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304883</v>
+        <v>0.29115</v>
       </c>
       <c r="C60" t="n">
-        <v>0.30363</v>
+        <v>0.296664</v>
       </c>
       <c r="D60" t="n">
-        <v>0.280483</v>
+        <v>0.276238</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.312265</v>
+        <v>0.299652</v>
       </c>
       <c r="C61" t="n">
-        <v>0.312693</v>
+        <v>0.306192</v>
       </c>
       <c r="D61" t="n">
-        <v>0.28354</v>
+        <v>0.280124</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.32394</v>
+        <v>0.323891</v>
       </c>
       <c r="C62" t="n">
-        <v>0.325558</v>
+        <v>0.317728</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288601</v>
+        <v>0.292669</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.340456</v>
+        <v>0.348544</v>
       </c>
       <c r="C63" t="n">
-        <v>0.344601</v>
+        <v>0.344594</v>
       </c>
       <c r="D63" t="n">
-        <v>0.296309</v>
+        <v>0.307922</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.364161</v>
+        <v>0.366409</v>
       </c>
       <c r="C64" t="n">
-        <v>0.373564</v>
+        <v>0.36303</v>
       </c>
       <c r="D64" t="n">
-        <v>0.309327</v>
+        <v>0.310802</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.403396</v>
+        <v>0.392557</v>
       </c>
       <c r="C65" t="n">
-        <v>0.419537</v>
+        <v>0.384386</v>
       </c>
       <c r="D65" t="n">
-        <v>0.331515</v>
+        <v>0.320552</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467031</v>
+        <v>0.435824</v>
       </c>
       <c r="C66" t="n">
-        <v>0.490745</v>
+        <v>0.43851</v>
       </c>
       <c r="D66" t="n">
-        <v>0.276517</v>
+        <v>0.269738</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.293567</v>
+        <v>0.286451</v>
       </c>
       <c r="C67" t="n">
-        <v>0.28812</v>
+        <v>0.282192</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27705</v>
+        <v>0.278531</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.295245</v>
+        <v>0.290717</v>
       </c>
       <c r="C68" t="n">
-        <v>0.289252</v>
+        <v>0.281519</v>
       </c>
       <c r="D68" t="n">
-        <v>0.277932</v>
+        <v>0.268728</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.296524</v>
+        <v>0.290875</v>
       </c>
       <c r="C69" t="n">
-        <v>0.291193</v>
+        <v>0.280437</v>
       </c>
       <c r="D69" t="n">
-        <v>0.278726</v>
+        <v>0.271801</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.298253</v>
+        <v>0.292167</v>
       </c>
       <c r="C70" t="n">
-        <v>0.293599</v>
+        <v>0.275345</v>
       </c>
       <c r="D70" t="n">
-        <v>0.279624</v>
+        <v>0.271104</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.300264</v>
+        <v>0.296088</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296168</v>
+        <v>0.290153</v>
       </c>
       <c r="D71" t="n">
-        <v>0.276509</v>
+        <v>0.275446</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297317</v>
+        <v>0.301264</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292984</v>
+        <v>0.290115</v>
       </c>
       <c r="D72" t="n">
-        <v>0.277914</v>
+        <v>0.281405</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300794</v>
+        <v>0.297414</v>
       </c>
       <c r="C73" t="n">
-        <v>0.296877</v>
+        <v>0.296149</v>
       </c>
       <c r="D73" t="n">
-        <v>0.27953</v>
+        <v>0.276944</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.305521</v>
+        <v>0.309769</v>
       </c>
       <c r="C74" t="n">
-        <v>0.303691</v>
+        <v>0.305919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.281707</v>
+        <v>0.287736</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.312452</v>
+        <v>0.32663</v>
       </c>
       <c r="C75" t="n">
-        <v>0.312723</v>
+        <v>0.305949</v>
       </c>
       <c r="D75" t="n">
-        <v>0.285053</v>
+        <v>0.285838</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.321631</v>
+        <v>0.325173</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3248</v>
+        <v>0.32134</v>
       </c>
       <c r="D76" t="n">
-        <v>0.289816</v>
+        <v>0.296402</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.336968</v>
+        <v>0.331028</v>
       </c>
       <c r="C77" t="n">
-        <v>0.345706</v>
+        <v>0.342106</v>
       </c>
       <c r="D77" t="n">
-        <v>0.297316</v>
+        <v>0.296784</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.362052</v>
+        <v>0.38495</v>
       </c>
       <c r="C78" t="n">
-        <v>0.373064</v>
+        <v>0.397871</v>
       </c>
       <c r="D78" t="n">
-        <v>0.309706</v>
+        <v>0.325381</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.394951</v>
+        <v>0.402419</v>
       </c>
       <c r="C79" t="n">
-        <v>0.410207</v>
+        <v>0.409469</v>
       </c>
       <c r="D79" t="n">
-        <v>0.328333</v>
+        <v>0.330183</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.447594</v>
+        <v>0.449935</v>
       </c>
       <c r="C80" t="n">
-        <v>0.473529</v>
+        <v>0.469083</v>
       </c>
       <c r="D80" t="n">
-        <v>0.275323</v>
+        <v>0.313768</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.307616</v>
+        <v>0.342769</v>
       </c>
       <c r="C81" t="n">
-        <v>0.287527</v>
+        <v>0.316965</v>
       </c>
       <c r="D81" t="n">
-        <v>0.275963</v>
+        <v>0.301791</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.308042</v>
+        <v>0.336637</v>
       </c>
       <c r="C82" t="n">
-        <v>0.288714</v>
+        <v>0.325344</v>
       </c>
       <c r="D82" t="n">
-        <v>0.27689</v>
+        <v>0.311765</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.308591</v>
+        <v>0.332207</v>
       </c>
       <c r="C83" t="n">
-        <v>0.289976</v>
+        <v>0.312321</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279474</v>
+        <v>0.310485</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.317251</v>
+        <v>0.340395</v>
       </c>
       <c r="C84" t="n">
-        <v>0.295427</v>
+        <v>0.332352</v>
       </c>
       <c r="D84" t="n">
-        <v>0.280739</v>
+        <v>0.303296</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327638</v>
+        <v>0.320513</v>
       </c>
       <c r="C85" t="n">
-        <v>0.304519</v>
+        <v>0.317192</v>
       </c>
       <c r="D85" t="n">
-        <v>0.284993</v>
+        <v>0.313752</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31787</v>
+        <v>0.316888</v>
       </c>
       <c r="C86" t="n">
-        <v>0.303792</v>
+        <v>0.345262</v>
       </c>
       <c r="D86" t="n">
-        <v>0.286022</v>
+        <v>0.306783</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.337402</v>
+        <v>0.310806</v>
       </c>
       <c r="C87" t="n">
-        <v>0.313901</v>
+        <v>0.319313</v>
       </c>
       <c r="D87" t="n">
-        <v>0.291344</v>
+        <v>0.318724</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.348602</v>
+        <v>0.308642</v>
       </c>
       <c r="C88" t="n">
-        <v>0.326828</v>
+        <v>0.322638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.29257</v>
+        <v>0.314778</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.356504</v>
+        <v>0.295078</v>
       </c>
       <c r="C89" t="n">
-        <v>0.340541</v>
+        <v>0.303029</v>
       </c>
       <c r="D89" t="n">
-        <v>0.297142</v>
+        <v>0.280108</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.36467</v>
+        <v>0.291971</v>
       </c>
       <c r="C90" t="n">
-        <v>0.350278</v>
+        <v>0.305397</v>
       </c>
       <c r="D90" t="n">
-        <v>0.309637</v>
+        <v>0.269607</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.382503</v>
+        <v>0.320829</v>
       </c>
       <c r="C91" t="n">
-        <v>0.372619</v>
+        <v>0.314088</v>
       </c>
       <c r="D91" t="n">
-        <v>0.316188</v>
+        <v>0.279034</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.406393</v>
+        <v>0.325304</v>
       </c>
       <c r="C92" t="n">
-        <v>0.394396</v>
+        <v>0.343156</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326966</v>
+        <v>0.293765</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.44018</v>
+        <v>0.351134</v>
       </c>
       <c r="C93" t="n">
-        <v>0.431741</v>
+        <v>0.362598</v>
       </c>
       <c r="D93" t="n">
-        <v>0.34304</v>
+        <v>0.308309</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.489077</v>
+        <v>0.391026</v>
       </c>
       <c r="C94" t="n">
-        <v>0.492315</v>
+        <v>0.412784</v>
       </c>
       <c r="D94" t="n">
-        <v>0.314776</v>
+        <v>0.294203</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349348</v>
+        <v>0.320917</v>
       </c>
       <c r="C95" t="n">
-        <v>0.334809</v>
+        <v>0.298161</v>
       </c>
       <c r="D95" t="n">
-        <v>0.317811</v>
+        <v>0.293779</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.352548</v>
+        <v>0.329408</v>
       </c>
       <c r="C96" t="n">
-        <v>0.338804</v>
+        <v>0.305316</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317288</v>
+        <v>0.336111</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.354664</v>
+        <v>0.392917</v>
       </c>
       <c r="C97" t="n">
-        <v>0.341552</v>
+        <v>0.348442</v>
       </c>
       <c r="D97" t="n">
-        <v>0.317965</v>
+        <v>0.331468</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341505</v>
+        <v>0.375543</v>
       </c>
       <c r="C98" t="n">
-        <v>0.332868</v>
+        <v>0.357736</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3209</v>
+        <v>0.344397</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.359653</v>
+        <v>0.394943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.350373</v>
+        <v>0.332553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.323937</v>
+        <v>0.318612</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.36219</v>
+        <v>0.428545</v>
       </c>
       <c r="C100" t="n">
-        <v>0.353971</v>
+        <v>0.392438</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3229</v>
+        <v>0.328524</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.368011</v>
+        <v>0.402006</v>
       </c>
       <c r="C101" t="n">
-        <v>0.358438</v>
+        <v>0.351757</v>
       </c>
       <c r="D101" t="n">
-        <v>0.328496</v>
+        <v>0.346834</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.37204</v>
+        <v>0.403669</v>
       </c>
       <c r="C102" t="n">
-        <v>0.363932</v>
+        <v>0.371233</v>
       </c>
       <c r="D102" t="n">
-        <v>0.328708</v>
+        <v>0.369922</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.377235</v>
+        <v>0.417162</v>
       </c>
       <c r="C103" t="n">
-        <v>0.372856</v>
+        <v>0.375276</v>
       </c>
       <c r="D103" t="n">
-        <v>0.334197</v>
+        <v>0.351278</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.390846</v>
+        <v>0.410716</v>
       </c>
       <c r="C104" t="n">
-        <v>0.388483</v>
+        <v>0.343995</v>
       </c>
       <c r="D104" t="n">
-        <v>0.338341</v>
+        <v>0.306064</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.407211</v>
+        <v>0.357153</v>
       </c>
       <c r="C105" t="n">
-        <v>0.403473</v>
+        <v>0.338256</v>
       </c>
       <c r="D105" t="n">
-        <v>0.347031</v>
+        <v>0.31367</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.428778</v>
+        <v>0.36993</v>
       </c>
       <c r="C106" t="n">
-        <v>0.431332</v>
+        <v>0.358286</v>
       </c>
       <c r="D106" t="n">
-        <v>0.359549</v>
+        <v>0.313807</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459527</v>
+        <v>0.39887</v>
       </c>
       <c r="C107" t="n">
-        <v>0.470998</v>
+        <v>0.375491</v>
       </c>
       <c r="D107" t="n">
-        <v>0.376301</v>
+        <v>0.33207</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.508525</v>
+        <v>0.441788</v>
       </c>
       <c r="C108" t="n">
-        <v>0.523616</v>
+        <v>0.425995</v>
       </c>
       <c r="D108" t="n">
-        <v>0.326663</v>
+        <v>0.304048</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.588333</v>
+        <v>0.503109</v>
       </c>
       <c r="C109" t="n">
-        <v>0.631001</v>
+        <v>0.509619</v>
       </c>
       <c r="D109" t="n">
-        <v>0.338539</v>
+        <v>0.310057</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.370411</v>
+        <v>0.33234</v>
       </c>
       <c r="C110" t="n">
-        <v>0.364618</v>
+        <v>0.325763</v>
       </c>
       <c r="D110" t="n">
-        <v>0.337066</v>
+        <v>0.317316</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.372303</v>
+        <v>0.363463</v>
       </c>
       <c r="C111" t="n">
-        <v>0.365758</v>
+        <v>0.340032</v>
       </c>
       <c r="D111" t="n">
-        <v>0.339093</v>
+        <v>0.335259</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.372864</v>
+        <v>0.340732</v>
       </c>
       <c r="C112" t="n">
-        <v>0.363047</v>
+        <v>0.365145</v>
       </c>
       <c r="D112" t="n">
-        <v>0.338494</v>
+        <v>0.358967</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.375788</v>
+        <v>0.387687</v>
       </c>
       <c r="C113" t="n">
-        <v>0.367585</v>
+        <v>0.405661</v>
       </c>
       <c r="D113" t="n">
-        <v>0.340144</v>
+        <v>0.40133</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.379959</v>
+        <v>0.428197</v>
       </c>
       <c r="C114" t="n">
-        <v>0.371516</v>
+        <v>0.400876</v>
       </c>
       <c r="D114" t="n">
-        <v>0.34547</v>
+        <v>0.387814</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.387254</v>
+        <v>0.408053</v>
       </c>
       <c r="C115" t="n">
-        <v>0.384414</v>
+        <v>0.418362</v>
       </c>
       <c r="D115" t="n">
-        <v>0.348291</v>
+        <v>0.387441</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.395556</v>
+        <v>0.430183</v>
       </c>
       <c r="C116" t="n">
-        <v>0.391206</v>
+        <v>0.391173</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3491</v>
+        <v>0.346224</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.409541</v>
+        <v>0.384383</v>
       </c>
       <c r="C117" t="n">
-        <v>0.397108</v>
+        <v>0.431883</v>
       </c>
       <c r="D117" t="n">
-        <v>0.355923</v>
+        <v>0.395707</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.406844</v>
+        <v>0.418753</v>
       </c>
       <c r="C118" t="n">
-        <v>0.40539</v>
+        <v>0.424851</v>
       </c>
       <c r="D118" t="n">
-        <v>0.355678</v>
+        <v>0.400014</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.423155</v>
+        <v>0.447686</v>
       </c>
       <c r="C119" t="n">
-        <v>0.430649</v>
+        <v>0.432952</v>
       </c>
       <c r="D119" t="n">
-        <v>0.367077</v>
+        <v>0.374193</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.442395</v>
+        <v>0.457879</v>
       </c>
       <c r="C120" t="n">
-        <v>0.447483</v>
+        <v>0.481064</v>
       </c>
       <c r="D120" t="n">
-        <v>0.37431</v>
+        <v>0.388669</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.471073</v>
+        <v>0.495873</v>
       </c>
       <c r="C121" t="n">
-        <v>0.484955</v>
+        <v>0.523747</v>
       </c>
       <c r="D121" t="n">
-        <v>0.392587</v>
+        <v>0.413917</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.520084</v>
+        <v>0.584646</v>
       </c>
       <c r="C122" t="n">
-        <v>0.537117</v>
+        <v>0.570345</v>
       </c>
       <c r="D122" t="n">
-        <v>0.419656</v>
+        <v>0.448348</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6042</v>
+        <v>0.614227</v>
       </c>
       <c r="C123" t="n">
-        <v>0.632165</v>
+        <v>0.648555</v>
       </c>
       <c r="D123" t="n">
-        <v>0.344455</v>
+        <v>0.382339</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.377724</v>
+        <v>0.404241</v>
       </c>
       <c r="C124" t="n">
-        <v>0.379869</v>
+        <v>0.395552</v>
       </c>
       <c r="D124" t="n">
-        <v>0.352501</v>
+        <v>0.378439</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.385835</v>
+        <v>0.42888</v>
       </c>
       <c r="C125" t="n">
-        <v>0.376242</v>
+        <v>0.397966</v>
       </c>
       <c r="D125" t="n">
-        <v>0.356968</v>
+        <v>0.387807</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.393297</v>
+        <v>0.427866</v>
       </c>
       <c r="C126" t="n">
-        <v>0.384575</v>
+        <v>0.417637</v>
       </c>
       <c r="D126" t="n">
-        <v>0.354134</v>
+        <v>0.389398</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.392785</v>
+        <v>0.42511</v>
       </c>
       <c r="C127" t="n">
-        <v>0.386953</v>
+        <v>0.423795</v>
       </c>
       <c r="D127" t="n">
-        <v>0.358507</v>
+        <v>0.392328</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.397945</v>
+        <v>0.441723</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388352</v>
+        <v>0.432103</v>
       </c>
       <c r="D128" t="n">
-        <v>0.363132</v>
+        <v>0.4088</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.41602</v>
+        <v>0.421144</v>
       </c>
       <c r="C129" t="n">
-        <v>0.406225</v>
+        <v>0.403265</v>
       </c>
       <c r="D129" t="n">
-        <v>0.365228</v>
+        <v>0.381765</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.402543</v>
+        <v>0.448797</v>
       </c>
       <c r="C130" t="n">
-        <v>0.40641</v>
+        <v>0.429322</v>
       </c>
       <c r="D130" t="n">
-        <v>0.375284</v>
+        <v>0.38278</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.435857</v>
+        <v>0.445494</v>
       </c>
       <c r="C131" t="n">
-        <v>0.426234</v>
+        <v>0.43147</v>
       </c>
       <c r="D131" t="n">
-        <v>0.366397</v>
+        <v>0.407563</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.431327</v>
+        <v>0.460841</v>
       </c>
       <c r="C132" t="n">
-        <v>0.424493</v>
+        <v>0.434293</v>
       </c>
       <c r="D132" t="n">
-        <v>0.382789</v>
+        <v>0.39772</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.435806</v>
+        <v>0.456533</v>
       </c>
       <c r="C133" t="n">
-        <v>0.458536</v>
+        <v>0.454406</v>
       </c>
       <c r="D133" t="n">
-        <v>0.386145</v>
+        <v>0.396129</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.470139</v>
+        <v>0.477209</v>
       </c>
       <c r="C134" t="n">
-        <v>0.466489</v>
+        <v>0.498477</v>
       </c>
       <c r="D134" t="n">
-        <v>0.400451</v>
+        <v>0.417764</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.494197</v>
+        <v>0.515249</v>
       </c>
       <c r="C135" t="n">
-        <v>0.518989</v>
+        <v>0.530158</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4154</v>
+        <v>0.435723</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.537446</v>
+        <v>0.586158</v>
       </c>
       <c r="C136" t="n">
-        <v>0.562516</v>
+        <v>0.616267</v>
       </c>
       <c r="D136" t="n">
-        <v>0.42423</v>
+        <v>0.5050249999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.617186</v>
+        <v>0.649241</v>
       </c>
       <c r="C137" t="n">
-        <v>0.646608</v>
+        <v>0.655399</v>
       </c>
       <c r="D137" t="n">
-        <v>0.470338</v>
+        <v>0.469071</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5151520000000001</v>
+        <v>0.498895</v>
       </c>
       <c r="C138" t="n">
-        <v>0.503393</v>
+        <v>0.482794</v>
       </c>
       <c r="D138" t="n">
-        <v>0.469068</v>
+        <v>0.351671</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.503405</v>
+        <v>0.380683</v>
       </c>
       <c r="C139" t="n">
-        <v>0.495854</v>
+        <v>0.360314</v>
       </c>
       <c r="D139" t="n">
-        <v>0.421937</v>
+        <v>0.338139</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.474497</v>
+        <v>0.379084</v>
       </c>
       <c r="C140" t="n">
-        <v>0.448586</v>
+        <v>0.369922</v>
       </c>
       <c r="D140" t="n">
-        <v>0.401103</v>
+        <v>0.348039</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.449496</v>
+        <v>0.393758</v>
       </c>
       <c r="C141" t="n">
-        <v>0.452533</v>
+        <v>0.428212</v>
       </c>
       <c r="D141" t="n">
-        <v>0.413893</v>
+        <v>0.394596</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.465972</v>
+        <v>0.461332</v>
       </c>
       <c r="C142" t="n">
-        <v>0.446613</v>
+        <v>0.488798</v>
       </c>
       <c r="D142" t="n">
-        <v>0.450932</v>
+        <v>0.419114</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.480208</v>
+        <v>0.502979</v>
       </c>
       <c r="C143" t="n">
-        <v>0.473433</v>
+        <v>0.448927</v>
       </c>
       <c r="D143" t="n">
-        <v>0.393536</v>
+        <v>0.373607</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.294205</v>
+        <v>0.233737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.285493</v>
+        <v>0.237646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.280036</v>
+        <v>0.224147</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.282852</v>
+        <v>0.237915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.275489</v>
+        <v>0.239928</v>
       </c>
       <c r="D3" t="n">
-        <v>0.266354</v>
+        <v>0.224539</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277783</v>
+        <v>0.245859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.29583</v>
+        <v>0.251545</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26824</v>
+        <v>0.229769</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.293819</v>
+        <v>0.25811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307412</v>
+        <v>0.265789</v>
       </c>
       <c r="D5" t="n">
-        <v>0.278175</v>
+        <v>0.234493</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.305134</v>
+        <v>0.274675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.313144</v>
+        <v>0.284265</v>
       </c>
       <c r="D6" t="n">
-        <v>0.281884</v>
+        <v>0.240513</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.321439</v>
+        <v>0.295018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.348173</v>
+        <v>0.313647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.291968</v>
+        <v>0.252764</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.357759</v>
+        <v>0.330538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.382943</v>
+        <v>0.348159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.310021</v>
+        <v>0.269442</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.414174</v>
+        <v>0.384859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4315</v>
+        <v>0.402549</v>
       </c>
       <c r="D9" t="n">
-        <v>0.254128</v>
+        <v>0.223242</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.261666</v>
+        <v>0.229541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.261982</v>
+        <v>0.225174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.258045</v>
+        <v>0.223505</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.262847</v>
+        <v>0.230045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260844</v>
+        <v>0.225578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257398</v>
+        <v>0.223318</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.270362</v>
+        <v>0.232444</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256544</v>
+        <v>0.22825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.261091</v>
+        <v>0.225348</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.26811</v>
+        <v>0.232336</v>
       </c>
       <c r="C13" t="n">
-        <v>0.265986</v>
+        <v>0.228849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255902</v>
+        <v>0.224786</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.26567</v>
+        <v>0.23534</v>
       </c>
       <c r="C14" t="n">
-        <v>0.263615</v>
+        <v>0.233268</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270612</v>
+        <v>0.226583</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283511</v>
+        <v>0.237474</v>
       </c>
       <c r="C15" t="n">
-        <v>0.283376</v>
+        <v>0.236322</v>
       </c>
       <c r="D15" t="n">
-        <v>0.277542</v>
+        <v>0.227903</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29068</v>
+        <v>0.240547</v>
       </c>
       <c r="C16" t="n">
-        <v>0.288892</v>
+        <v>0.240939</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2758</v>
+        <v>0.229078</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.290349</v>
+        <v>0.243822</v>
       </c>
       <c r="C17" t="n">
-        <v>0.292352</v>
+        <v>0.246398</v>
       </c>
       <c r="D17" t="n">
-        <v>0.271814</v>
+        <v>0.230499</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.290685</v>
+        <v>0.248988</v>
       </c>
       <c r="C18" t="n">
-        <v>0.281013</v>
+        <v>0.252424</v>
       </c>
       <c r="D18" t="n">
-        <v>0.282283</v>
+        <v>0.232029</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.291003</v>
+        <v>0.258359</v>
       </c>
       <c r="C19" t="n">
-        <v>0.294382</v>
+        <v>0.263083</v>
       </c>
       <c r="D19" t="n">
-        <v>0.270409</v>
+        <v>0.236262</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.305499</v>
+        <v>0.269732</v>
       </c>
       <c r="C20" t="n">
-        <v>0.310035</v>
+        <v>0.27836</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27331</v>
+        <v>0.240324</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.331233</v>
+        <v>0.290161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.338168</v>
+        <v>0.298216</v>
       </c>
       <c r="D21" t="n">
-        <v>0.296717</v>
+        <v>0.248074</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.379631</v>
+        <v>0.324815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.363205</v>
+        <v>0.325628</v>
       </c>
       <c r="D22" t="n">
-        <v>0.300958</v>
+        <v>0.261234</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407739</v>
+        <v>0.36708</v>
       </c>
       <c r="C23" t="n">
-        <v>0.411382</v>
+        <v>0.379906</v>
       </c>
       <c r="D23" t="n">
-        <v>0.254851</v>
+        <v>0.226464</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.274265</v>
+        <v>0.234082</v>
       </c>
       <c r="C24" t="n">
-        <v>0.265949</v>
+        <v>0.227387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258236</v>
+        <v>0.227432</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274384</v>
+        <v>0.234153</v>
       </c>
       <c r="C25" t="n">
-        <v>0.264983</v>
+        <v>0.227738</v>
       </c>
       <c r="D25" t="n">
-        <v>0.270002</v>
+        <v>0.227086</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.269324</v>
+        <v>0.235051</v>
       </c>
       <c r="C26" t="n">
-        <v>0.262452</v>
+        <v>0.228854</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251031</v>
+        <v>0.227392</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27331</v>
+        <v>0.236553</v>
       </c>
       <c r="C27" t="n">
-        <v>0.278783</v>
+        <v>0.230518</v>
       </c>
       <c r="D27" t="n">
-        <v>0.276822</v>
+        <v>0.22779</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.29549</v>
+        <v>0.238657</v>
       </c>
       <c r="C28" t="n">
-        <v>0.277716</v>
+        <v>0.233066</v>
       </c>
       <c r="D28" t="n">
-        <v>0.265941</v>
+        <v>0.229166</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.286546</v>
+        <v>0.240059</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28008</v>
+        <v>0.235769</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276744</v>
+        <v>0.229437</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.293974</v>
+        <v>0.242565</v>
       </c>
       <c r="C30" t="n">
-        <v>0.287122</v>
+        <v>0.239049</v>
       </c>
       <c r="D30" t="n">
-        <v>0.26802</v>
+        <v>0.230647</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.284067</v>
+        <v>0.245872</v>
       </c>
       <c r="C31" t="n">
-        <v>0.272907</v>
+        <v>0.243419</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269206</v>
+        <v>0.231736</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.295618</v>
+        <v>0.25147</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280875</v>
+        <v>0.250145</v>
       </c>
       <c r="D32" t="n">
-        <v>0.270676</v>
+        <v>0.234155</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.303233</v>
+        <v>0.258784</v>
       </c>
       <c r="C33" t="n">
-        <v>0.288295</v>
+        <v>0.260406</v>
       </c>
       <c r="D33" t="n">
-        <v>0.269425</v>
+        <v>0.237239</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.308027</v>
+        <v>0.268779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.307915</v>
+        <v>0.272266</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270343</v>
+        <v>0.241136</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.329646</v>
+        <v>0.284616</v>
       </c>
       <c r="C35" t="n">
-        <v>0.324971</v>
+        <v>0.289645</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284111</v>
+        <v>0.246708</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.356811</v>
+        <v>0.308804</v>
       </c>
       <c r="C36" t="n">
-        <v>0.345681</v>
+        <v>0.317823</v>
       </c>
       <c r="D36" t="n">
-        <v>0.294697</v>
+        <v>0.257524</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.393551</v>
+        <v>0.350076</v>
       </c>
       <c r="C37" t="n">
-        <v>0.408595</v>
+        <v>0.362492</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270945</v>
+        <v>0.228888</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.275135</v>
+        <v>0.235409</v>
       </c>
       <c r="C38" t="n">
-        <v>0.273714</v>
+        <v>0.228891</v>
       </c>
       <c r="D38" t="n">
-        <v>0.261092</v>
+        <v>0.228711</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.268968</v>
+        <v>0.236839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27636</v>
+        <v>0.230665</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264293</v>
+        <v>0.229708</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.278757</v>
+        <v>0.237471</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269215</v>
+        <v>0.231454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.265571</v>
+        <v>0.229746</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.280738</v>
+        <v>0.238798</v>
       </c>
       <c r="C41" t="n">
-        <v>0.266426</v>
+        <v>0.232786</v>
       </c>
       <c r="D41" t="n">
-        <v>0.271355</v>
+        <v>0.23029</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280117</v>
+        <v>0.240616</v>
       </c>
       <c r="C42" t="n">
-        <v>0.271589</v>
+        <v>0.234596</v>
       </c>
       <c r="D42" t="n">
-        <v>0.263716</v>
+        <v>0.231123</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280237</v>
+        <v>0.242619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.26839</v>
+        <v>0.236954</v>
       </c>
       <c r="D43" t="n">
-        <v>0.264167</v>
+        <v>0.231801</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.28294</v>
+        <v>0.245402</v>
       </c>
       <c r="C44" t="n">
-        <v>0.270716</v>
+        <v>0.240539</v>
       </c>
       <c r="D44" t="n">
-        <v>0.269932</v>
+        <v>0.23311</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.291935</v>
+        <v>0.248777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.300745</v>
+        <v>0.24487</v>
       </c>
       <c r="D45" t="n">
-        <v>0.277344</v>
+        <v>0.234444</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.307502</v>
+        <v>0.253777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.304793</v>
+        <v>0.251168</v>
       </c>
       <c r="D46" t="n">
-        <v>0.287067</v>
+        <v>0.23646</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.314</v>
+        <v>0.260344</v>
       </c>
       <c r="C47" t="n">
-        <v>0.304504</v>
+        <v>0.25956</v>
       </c>
       <c r="D47" t="n">
-        <v>0.28185</v>
+        <v>0.238997</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.323542</v>
+        <v>0.270464</v>
       </c>
       <c r="C48" t="n">
-        <v>0.314114</v>
+        <v>0.27154</v>
       </c>
       <c r="D48" t="n">
-        <v>0.287233</v>
+        <v>0.242839</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335707</v>
+        <v>0.285243</v>
       </c>
       <c r="C49" t="n">
-        <v>0.33134</v>
+        <v>0.288312</v>
       </c>
       <c r="D49" t="n">
-        <v>0.291963</v>
+        <v>0.24845</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.363496</v>
+        <v>0.308607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.373274</v>
+        <v>0.316203</v>
       </c>
       <c r="D50" t="n">
-        <v>0.309132</v>
+        <v>0.258959</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.398309</v>
+        <v>0.344384</v>
       </c>
       <c r="C51" t="n">
-        <v>0.397295</v>
+        <v>0.35357</v>
       </c>
       <c r="D51" t="n">
-        <v>0.275195</v>
+        <v>0.231093</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.464829</v>
+        <v>0.399912</v>
       </c>
       <c r="C52" t="n">
-        <v>0.463618</v>
+        <v>0.418262</v>
       </c>
       <c r="D52" t="n">
-        <v>0.273424</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.286473</v>
+        <v>0.241513</v>
       </c>
       <c r="C53" t="n">
-        <v>0.286228</v>
+        <v>0.233827</v>
       </c>
       <c r="D53" t="n">
-        <v>0.268585</v>
+        <v>0.231933</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.28726</v>
+        <v>0.242208</v>
       </c>
       <c r="C54" t="n">
-        <v>0.268569</v>
+        <v>0.234822</v>
       </c>
       <c r="D54" t="n">
-        <v>0.262878</v>
+        <v>0.232444</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282624</v>
+        <v>0.243447</v>
       </c>
       <c r="C55" t="n">
-        <v>0.277078</v>
+        <v>0.236359</v>
       </c>
       <c r="D55" t="n">
-        <v>0.270821</v>
+        <v>0.233059</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.282867</v>
+        <v>0.244801</v>
       </c>
       <c r="C56" t="n">
-        <v>0.277825</v>
+        <v>0.238173</v>
       </c>
       <c r="D56" t="n">
-        <v>0.267255</v>
+        <v>0.233838</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283356</v>
+        <v>0.246605</v>
       </c>
       <c r="C57" t="n">
-        <v>0.282039</v>
+        <v>0.240669</v>
       </c>
       <c r="D57" t="n">
-        <v>0.269075</v>
+        <v>0.234674</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294102</v>
+        <v>0.249008</v>
       </c>
       <c r="C58" t="n">
-        <v>0.280019</v>
+        <v>0.244198</v>
       </c>
       <c r="D58" t="n">
-        <v>0.267691</v>
+        <v>0.235709</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.290975</v>
+        <v>0.25206</v>
       </c>
       <c r="C59" t="n">
-        <v>0.283314</v>
+        <v>0.248816</v>
       </c>
       <c r="D59" t="n">
-        <v>0.270124</v>
+        <v>0.236975</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.29115</v>
+        <v>0.25704</v>
       </c>
       <c r="C60" t="n">
-        <v>0.296664</v>
+        <v>0.254343</v>
       </c>
       <c r="D60" t="n">
-        <v>0.276238</v>
+        <v>0.238959</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.299652</v>
+        <v>0.263688</v>
       </c>
       <c r="C61" t="n">
-        <v>0.306192</v>
+        <v>0.262049</v>
       </c>
       <c r="D61" t="n">
-        <v>0.280124</v>
+        <v>0.241179</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.323891</v>
+        <v>0.272455</v>
       </c>
       <c r="C62" t="n">
-        <v>0.317728</v>
+        <v>0.272894</v>
       </c>
       <c r="D62" t="n">
-        <v>0.292669</v>
+        <v>0.244789</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.348544</v>
+        <v>0.285469</v>
       </c>
       <c r="C63" t="n">
-        <v>0.344594</v>
+        <v>0.288836</v>
       </c>
       <c r="D63" t="n">
-        <v>0.307922</v>
+        <v>0.250782</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.366409</v>
+        <v>0.306241</v>
       </c>
       <c r="C64" t="n">
-        <v>0.36303</v>
+        <v>0.312564</v>
       </c>
       <c r="D64" t="n">
-        <v>0.310802</v>
+        <v>0.260103</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.392557</v>
+        <v>0.338148</v>
       </c>
       <c r="C65" t="n">
-        <v>0.384386</v>
+        <v>0.349272</v>
       </c>
       <c r="D65" t="n">
-        <v>0.320552</v>
+        <v>0.276556</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.435824</v>
+        <v>0.3884</v>
       </c>
       <c r="C66" t="n">
-        <v>0.43851</v>
+        <v>0.407651</v>
       </c>
       <c r="D66" t="n">
-        <v>0.269738</v>
+        <v>0.242731</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.286451</v>
+        <v>0.258116</v>
       </c>
       <c r="C67" t="n">
-        <v>0.282192</v>
+        <v>0.24695</v>
       </c>
       <c r="D67" t="n">
-        <v>0.278531</v>
+        <v>0.243223</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.290717</v>
+        <v>0.258413</v>
       </c>
       <c r="C68" t="n">
-        <v>0.281519</v>
+        <v>0.248177</v>
       </c>
       <c r="D68" t="n">
-        <v>0.268728</v>
+        <v>0.243682</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.290875</v>
+        <v>0.259686</v>
       </c>
       <c r="C69" t="n">
-        <v>0.280437</v>
+        <v>0.25001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.271801</v>
+        <v>0.244495</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.292167</v>
+        <v>0.261124</v>
       </c>
       <c r="C70" t="n">
-        <v>0.275345</v>
+        <v>0.251919</v>
       </c>
       <c r="D70" t="n">
-        <v>0.271104</v>
+        <v>0.245258</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.296088</v>
+        <v>0.262877</v>
       </c>
       <c r="C71" t="n">
-        <v>0.290153</v>
+        <v>0.254634</v>
       </c>
       <c r="D71" t="n">
-        <v>0.275446</v>
+        <v>0.246153</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.301264</v>
+        <v>0.265464</v>
       </c>
       <c r="C72" t="n">
-        <v>0.290115</v>
+        <v>0.257761</v>
       </c>
       <c r="D72" t="n">
-        <v>0.281405</v>
+        <v>0.247365</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.297414</v>
+        <v>0.268415</v>
       </c>
       <c r="C73" t="n">
-        <v>0.296149</v>
+        <v>0.262071</v>
       </c>
       <c r="D73" t="n">
-        <v>0.276944</v>
+        <v>0.248945</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.309769</v>
+        <v>0.272433</v>
       </c>
       <c r="C74" t="n">
-        <v>0.305919</v>
+        <v>0.267928</v>
       </c>
       <c r="D74" t="n">
-        <v>0.287736</v>
+        <v>0.250897</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32663</v>
+        <v>0.278204</v>
       </c>
       <c r="C75" t="n">
-        <v>0.305949</v>
+        <v>0.27623</v>
       </c>
       <c r="D75" t="n">
-        <v>0.285838</v>
+        <v>0.253702</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.325173</v>
+        <v>0.286603</v>
       </c>
       <c r="C76" t="n">
-        <v>0.32134</v>
+        <v>0.28709</v>
       </c>
       <c r="D76" t="n">
-        <v>0.296402</v>
+        <v>0.257434</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.331028</v>
+        <v>0.299268</v>
       </c>
       <c r="C77" t="n">
-        <v>0.342106</v>
+        <v>0.302209</v>
       </c>
       <c r="D77" t="n">
-        <v>0.296784</v>
+        <v>0.26288</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.38495</v>
+        <v>0.318377</v>
       </c>
       <c r="C78" t="n">
-        <v>0.397871</v>
+        <v>0.324229</v>
       </c>
       <c r="D78" t="n">
-        <v>0.325381</v>
+        <v>0.271654</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.402419</v>
+        <v>0.346369</v>
       </c>
       <c r="C79" t="n">
-        <v>0.409469</v>
+        <v>0.358375</v>
       </c>
       <c r="D79" t="n">
-        <v>0.330183</v>
+        <v>0.286404</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.449935</v>
+        <v>0.391263</v>
       </c>
       <c r="C80" t="n">
-        <v>0.469083</v>
+        <v>0.409706</v>
       </c>
       <c r="D80" t="n">
-        <v>0.313768</v>
+        <v>0.264804</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.342769</v>
+        <v>0.27566</v>
       </c>
       <c r="C81" t="n">
-        <v>0.316965</v>
+        <v>0.26615</v>
       </c>
       <c r="D81" t="n">
-        <v>0.301791</v>
+        <v>0.26512</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.336637</v>
+        <v>0.276447</v>
       </c>
       <c r="C82" t="n">
-        <v>0.325344</v>
+        <v>0.267144</v>
       </c>
       <c r="D82" t="n">
-        <v>0.311765</v>
+        <v>0.26559</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.332207</v>
+        <v>0.277521</v>
       </c>
       <c r="C83" t="n">
-        <v>0.312321</v>
+        <v>0.268466</v>
       </c>
       <c r="D83" t="n">
-        <v>0.310485</v>
+        <v>0.266122</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.340395</v>
+        <v>0.278764</v>
       </c>
       <c r="C84" t="n">
-        <v>0.332352</v>
+        <v>0.270176</v>
       </c>
       <c r="D84" t="n">
-        <v>0.303296</v>
+        <v>0.266729</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.320513</v>
+        <v>0.280351</v>
       </c>
       <c r="C85" t="n">
-        <v>0.317192</v>
+        <v>0.272231</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313752</v>
+        <v>0.267516</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316888</v>
+        <v>0.282457</v>
       </c>
       <c r="C86" t="n">
-        <v>0.345262</v>
+        <v>0.274909</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306783</v>
+        <v>0.268417</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310806</v>
+        <v>0.28508</v>
       </c>
       <c r="C87" t="n">
-        <v>0.319313</v>
+        <v>0.278627</v>
       </c>
       <c r="D87" t="n">
-        <v>0.318724</v>
+        <v>0.269602</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308642</v>
+        <v>0.288813</v>
       </c>
       <c r="C88" t="n">
-        <v>0.322638</v>
+        <v>0.283673</v>
       </c>
       <c r="D88" t="n">
-        <v>0.314778</v>
+        <v>0.271257</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295078</v>
+        <v>0.294241</v>
       </c>
       <c r="C89" t="n">
-        <v>0.303029</v>
+        <v>0.291015</v>
       </c>
       <c r="D89" t="n">
-        <v>0.280108</v>
+        <v>0.273654</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.291971</v>
+        <v>0.30203</v>
       </c>
       <c r="C90" t="n">
-        <v>0.305397</v>
+        <v>0.300752</v>
       </c>
       <c r="D90" t="n">
-        <v>0.269607</v>
+        <v>0.276974</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.320829</v>
+        <v>0.313271</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314088</v>
+        <v>0.314352</v>
       </c>
       <c r="D91" t="n">
-        <v>0.279034</v>
+        <v>0.281769</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.325304</v>
+        <v>0.330112</v>
       </c>
       <c r="C92" t="n">
-        <v>0.343156</v>
+        <v>0.333955</v>
       </c>
       <c r="D92" t="n">
-        <v>0.293765</v>
+        <v>0.289332</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.351134</v>
+        <v>0.355915</v>
       </c>
       <c r="C93" t="n">
-        <v>0.362598</v>
+        <v>0.364441</v>
       </c>
       <c r="D93" t="n">
-        <v>0.308309</v>
+        <v>0.301929</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.391026</v>
+        <v>0.396721</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412784</v>
+        <v>0.412803</v>
       </c>
       <c r="D94" t="n">
-        <v>0.294203</v>
+        <v>0.274559</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.320917</v>
+        <v>0.286606</v>
       </c>
       <c r="C95" t="n">
-        <v>0.298161</v>
+        <v>0.276867</v>
       </c>
       <c r="D95" t="n">
-        <v>0.293779</v>
+        <v>0.275181</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.329408</v>
+        <v>0.287522</v>
       </c>
       <c r="C96" t="n">
-        <v>0.305316</v>
+        <v>0.278176</v>
       </c>
       <c r="D96" t="n">
-        <v>0.336111</v>
+        <v>0.275801</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.392917</v>
+        <v>0.288874</v>
       </c>
       <c r="C97" t="n">
-        <v>0.348442</v>
+        <v>0.279698</v>
       </c>
       <c r="D97" t="n">
-        <v>0.331468</v>
+        <v>0.276338</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.375543</v>
+        <v>0.290251</v>
       </c>
       <c r="C98" t="n">
-        <v>0.357736</v>
+        <v>0.281708</v>
       </c>
       <c r="D98" t="n">
-        <v>0.344397</v>
+        <v>0.277014</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.394943</v>
+        <v>0.292051</v>
       </c>
       <c r="C99" t="n">
-        <v>0.332553</v>
+        <v>0.284136</v>
       </c>
       <c r="D99" t="n">
-        <v>0.318612</v>
+        <v>0.277914</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.428545</v>
+        <v>0.294508</v>
       </c>
       <c r="C100" t="n">
-        <v>0.392438</v>
+        <v>0.287352</v>
       </c>
       <c r="D100" t="n">
-        <v>0.328524</v>
+        <v>0.278927</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.402006</v>
+        <v>0.297488</v>
       </c>
       <c r="C101" t="n">
-        <v>0.351757</v>
+        <v>0.291476</v>
       </c>
       <c r="D101" t="n">
-        <v>0.346834</v>
+        <v>0.280168</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.403669</v>
+        <v>0.301895</v>
       </c>
       <c r="C102" t="n">
-        <v>0.371233</v>
+        <v>0.297365</v>
       </c>
       <c r="D102" t="n">
-        <v>0.369922</v>
+        <v>0.281881</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.417162</v>
+        <v>0.307834</v>
       </c>
       <c r="C103" t="n">
-        <v>0.375276</v>
+        <v>0.305353</v>
       </c>
       <c r="D103" t="n">
-        <v>0.351278</v>
+        <v>0.284254</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.410716</v>
+        <v>0.316338</v>
       </c>
       <c r="C104" t="n">
-        <v>0.343995</v>
+        <v>0.316589</v>
       </c>
       <c r="D104" t="n">
-        <v>0.306064</v>
+        <v>0.287614</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.357153</v>
+        <v>0.328674</v>
       </c>
       <c r="C105" t="n">
-        <v>0.338256</v>
+        <v>0.331746</v>
       </c>
       <c r="D105" t="n">
-        <v>0.31367</v>
+        <v>0.292476</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.36993</v>
+        <v>0.346415</v>
       </c>
       <c r="C106" t="n">
-        <v>0.358286</v>
+        <v>0.352282</v>
       </c>
       <c r="D106" t="n">
-        <v>0.313807</v>
+        <v>0.29993</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.39887</v>
+        <v>0.373237</v>
       </c>
       <c r="C107" t="n">
-        <v>0.375491</v>
+        <v>0.383343</v>
       </c>
       <c r="D107" t="n">
-        <v>0.33207</v>
+        <v>0.312603</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.441788</v>
+        <v>0.41441</v>
       </c>
       <c r="C108" t="n">
-        <v>0.425995</v>
+        <v>0.430273</v>
       </c>
       <c r="D108" t="n">
-        <v>0.304048</v>
+        <v>0.280311</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.503109</v>
+        <v>0.475618</v>
       </c>
       <c r="C109" t="n">
-        <v>0.509619</v>
+        <v>0.501383</v>
       </c>
       <c r="D109" t="n">
-        <v>0.310057</v>
+        <v>0.280671</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.33234</v>
+        <v>0.301093</v>
       </c>
       <c r="C110" t="n">
-        <v>0.325763</v>
+        <v>0.297881</v>
       </c>
       <c r="D110" t="n">
-        <v>0.317316</v>
+        <v>0.281872</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.363463</v>
+        <v>0.309524</v>
       </c>
       <c r="C111" t="n">
-        <v>0.340032</v>
+        <v>0.303342</v>
       </c>
       <c r="D111" t="n">
-        <v>0.335259</v>
+        <v>0.282104</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.340732</v>
+        <v>0.314125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.365145</v>
+        <v>0.309706</v>
       </c>
       <c r="D112" t="n">
-        <v>0.358967</v>
+        <v>0.284234</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.387687</v>
+        <v>0.320535</v>
       </c>
       <c r="C113" t="n">
-        <v>0.405661</v>
+        <v>0.316262</v>
       </c>
       <c r="D113" t="n">
-        <v>0.40133</v>
+        <v>0.286276</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.428197</v>
+        <v>0.327638</v>
       </c>
       <c r="C114" t="n">
-        <v>0.400876</v>
+        <v>0.323791</v>
       </c>
       <c r="D114" t="n">
-        <v>0.387814</v>
+        <v>0.288703</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.408053</v>
+        <v>0.335177</v>
       </c>
       <c r="C115" t="n">
-        <v>0.418362</v>
+        <v>0.331891</v>
       </c>
       <c r="D115" t="n">
-        <v>0.387441</v>
+        <v>0.291418</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.430183</v>
+        <v>0.343782</v>
       </c>
       <c r="C116" t="n">
-        <v>0.391173</v>
+        <v>0.341256</v>
       </c>
       <c r="D116" t="n">
-        <v>0.346224</v>
+        <v>0.29603</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.384383</v>
+        <v>0.353129</v>
       </c>
       <c r="C117" t="n">
-        <v>0.431883</v>
+        <v>0.352365</v>
       </c>
       <c r="D117" t="n">
-        <v>0.395707</v>
+        <v>0.301154</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.418753</v>
+        <v>0.364771</v>
       </c>
       <c r="C118" t="n">
-        <v>0.424851</v>
+        <v>0.36538</v>
       </c>
       <c r="D118" t="n">
-        <v>0.400014</v>
+        <v>0.307595</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.447686</v>
+        <v>0.379961</v>
       </c>
       <c r="C119" t="n">
-        <v>0.432952</v>
+        <v>0.382202</v>
       </c>
       <c r="D119" t="n">
-        <v>0.374193</v>
+        <v>0.31649</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.457879</v>
+        <v>0.400319</v>
       </c>
       <c r="C120" t="n">
-        <v>0.481064</v>
+        <v>0.401739</v>
       </c>
       <c r="D120" t="n">
-        <v>0.388669</v>
+        <v>0.328123</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.495873</v>
+        <v>0.428146</v>
       </c>
       <c r="C121" t="n">
-        <v>0.523747</v>
+        <v>0.432591</v>
       </c>
       <c r="D121" t="n">
-        <v>0.413917</v>
+        <v>0.34391</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.584646</v>
+        <v>0.470237</v>
       </c>
       <c r="C122" t="n">
-        <v>0.570345</v>
+        <v>0.47941</v>
       </c>
       <c r="D122" t="n">
-        <v>0.448348</v>
+        <v>0.368039</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.614227</v>
+        <v>0.535063</v>
       </c>
       <c r="C123" t="n">
-        <v>0.648555</v>
+        <v>0.559129</v>
       </c>
       <c r="D123" t="n">
-        <v>0.382339</v>
+        <v>0.312198</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.404241</v>
+        <v>0.342786</v>
       </c>
       <c r="C124" t="n">
-        <v>0.395552</v>
+        <v>0.346776</v>
       </c>
       <c r="D124" t="n">
-        <v>0.378439</v>
+        <v>0.313868</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.42888</v>
+        <v>0.358884</v>
       </c>
       <c r="C125" t="n">
-        <v>0.397966</v>
+        <v>0.352202</v>
       </c>
       <c r="D125" t="n">
-        <v>0.387807</v>
+        <v>0.317502</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.427866</v>
+        <v>0.36569</v>
       </c>
       <c r="C126" t="n">
-        <v>0.417637</v>
+        <v>0.356659</v>
       </c>
       <c r="D126" t="n">
-        <v>0.389398</v>
+        <v>0.321124</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.42511</v>
+        <v>0.367728</v>
       </c>
       <c r="C127" t="n">
-        <v>0.423795</v>
+        <v>0.361949</v>
       </c>
       <c r="D127" t="n">
-        <v>0.392328</v>
+        <v>0.324003</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.441723</v>
+        <v>0.3729</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432103</v>
+        <v>0.367474</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4088</v>
+        <v>0.327531</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.421144</v>
+        <v>0.379497</v>
       </c>
       <c r="C129" t="n">
-        <v>0.403265</v>
+        <v>0.374582</v>
       </c>
       <c r="D129" t="n">
-        <v>0.381765</v>
+        <v>0.330657</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.448797</v>
+        <v>0.371457</v>
       </c>
       <c r="C130" t="n">
-        <v>0.429322</v>
+        <v>0.383191</v>
       </c>
       <c r="D130" t="n">
-        <v>0.38278</v>
+        <v>0.334841</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.445494</v>
+        <v>0.397768</v>
       </c>
       <c r="C131" t="n">
-        <v>0.43147</v>
+        <v>0.392386</v>
       </c>
       <c r="D131" t="n">
-        <v>0.407563</v>
+        <v>0.33853</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.460841</v>
+        <v>0.414319</v>
       </c>
       <c r="C132" t="n">
-        <v>0.434293</v>
+        <v>0.407715</v>
       </c>
       <c r="D132" t="n">
-        <v>0.39772</v>
+        <v>0.345442</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.456533</v>
+        <v>0.418976</v>
       </c>
       <c r="C133" t="n">
-        <v>0.454406</v>
+        <v>0.422723</v>
       </c>
       <c r="D133" t="n">
-        <v>0.396129</v>
+        <v>0.351496</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.477209</v>
+        <v>0.445587</v>
       </c>
       <c r="C134" t="n">
-        <v>0.498477</v>
+        <v>0.448618</v>
       </c>
       <c r="D134" t="n">
-        <v>0.417764</v>
+        <v>0.361154</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.515249</v>
+        <v>0.467531</v>
       </c>
       <c r="C135" t="n">
-        <v>0.530158</v>
+        <v>0.480858</v>
       </c>
       <c r="D135" t="n">
-        <v>0.435723</v>
+        <v>0.376227</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.586158</v>
+        <v>0.5098780000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.616267</v>
+        <v>0.5325569999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5050249999999999</v>
+        <v>0.399362</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.649241</v>
+        <v>0.570659</v>
       </c>
       <c r="C137" t="n">
-        <v>0.655399</v>
+        <v>0.601672</v>
       </c>
       <c r="D137" t="n">
-        <v>0.469071</v>
+        <v>0.451967</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.498895</v>
+        <v>0.521935</v>
       </c>
       <c r="C138" t="n">
-        <v>0.482794</v>
+        <v>0.49081</v>
       </c>
       <c r="D138" t="n">
-        <v>0.351671</v>
+        <v>0.447218</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.380683</v>
+        <v>0.517598</v>
       </c>
       <c r="C139" t="n">
-        <v>0.360314</v>
+        <v>0.502018</v>
       </c>
       <c r="D139" t="n">
-        <v>0.338139</v>
+        <v>0.456629</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.379084</v>
+        <v>0.525247</v>
       </c>
       <c r="C140" t="n">
-        <v>0.369922</v>
+        <v>0.505652</v>
       </c>
       <c r="D140" t="n">
-        <v>0.348039</v>
+        <v>0.457613</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.393758</v>
+        <v>0.524423</v>
       </c>
       <c r="C141" t="n">
-        <v>0.428212</v>
+        <v>0.514198</v>
       </c>
       <c r="D141" t="n">
-        <v>0.394596</v>
+        <v>0.463952</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.461332</v>
+        <v>0.537059</v>
       </c>
       <c r="C142" t="n">
-        <v>0.488798</v>
+        <v>0.520268</v>
       </c>
       <c r="D142" t="n">
-        <v>0.419114</v>
+        <v>0.465286</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.502979</v>
+        <v>0.552285</v>
       </c>
       <c r="C143" t="n">
-        <v>0.448927</v>
+        <v>0.53208</v>
       </c>
       <c r="D143" t="n">
-        <v>0.373607</v>
+        <v>0.472852</v>
       </c>
     </row>
   </sheetData>
